--- a/DDAf_2024_Tableau_annexe_Tab38.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab38.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B73B00-430F-4B4D-9BB3-96899D56DE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A48A613-9A2C-4996-9F69-5D07D461DB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7F131ABF-D144-4B90-B046-8362E2364265}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{663D80EA-EAB5-45CF-98EB-3CE35A56F079}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab38" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
-  <si>
-    <t>Tableau 38 : Projections sur les profils d'éducation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="170">
+  <si>
+    <t>Tableau 38 : Profils éducatifs projetés</t>
   </si>
   <si>
     <t>ISO3 Code</t>
@@ -534,13 +534,10 @@
     <t>Source : Wittgenstein Centre Human Capital Data Explorer, 2018.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2024-fr.</t>
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
@@ -556,26 +553,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -588,6 +577,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -661,6 +658,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -669,10 +673,30 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -687,18 +711,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -708,24 +732,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -734,7 +745,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -742,28 +753,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
@@ -773,7 +773,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -781,77 +781,12 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,34 +795,77 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -896,153 +874,209 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1358,3572 +1392,3583 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222CF567-52AC-454C-BE45-710EC5ADB682}">
-  <sheetPr codeName="Sheet41">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEB03A0-B7CD-48D3-A4E5-E5837B7B0628}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="77" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>52.478486634309498</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>40.1388833955804</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>7.3826299701101297</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>36.570079377839697</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="14">
         <v>47.827083742727702</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="15">
         <v>15.6028368794326</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="13">
         <v>19.008225394724398</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="14">
         <v>19.654281302196601</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="15">
         <v>61.337493303079</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="17">
         <v>13.138817326703</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
         <v>42.3761308489605</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="19">
         <v>44.485051824336502</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="17">
         <v>4.27895316923476</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="18">
         <v>33.691353489075702</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="19">
         <v>62.029693341689601</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="17">
         <v>4.3457600760292001</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="18">
         <v>24.2429478595188</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="19">
         <v>71.411292064451999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="21">
         <v>17.369863013698598</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="22">
         <v>39.956164383561699</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="23">
         <v>42.673972602739703</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
         <v>5.5311814478220001</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="22">
         <v>31.792541523033499</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="23">
         <v>62.676277029144501</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="21">
         <v>5.3686471009305698</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="22">
         <v>20.194066650759599</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="23">
         <v>74.437286248309903</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="21">
         <v>32.030989113738102</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="22">
         <v>47.144860749348801</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="23">
         <v>20.824150136913101</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="21">
         <v>14.620192817035701</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="22">
         <v>48.781650598580399</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="23">
         <v>36.598156584384</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="21">
         <v>10.5429767142397</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="22">
         <v>24.444682905891199</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="23">
         <v>65.012340379869102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="21">
         <v>40.069677374736301</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="22">
         <v>43.897610567447003</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="23">
         <v>16.032712057816699</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <v>22.8170673444871</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="22">
         <v>48.983037482664102</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="23">
         <v>28.199895172848802</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="21">
         <v>12.397976524133499</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="22">
         <v>22.4454109754356</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="23">
         <v>65.156612500430995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
         <v>66.231881649856902</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="22">
         <v>24.8913037457976</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="23">
         <v>8.8768146043456397</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="21">
         <v>45.562694685350102</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="22">
         <v>36.650627635155303</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="23">
         <v>17.786677679494701</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="21">
         <v>20.502453439065299</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="22">
         <v>15.823406794819</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="23">
         <v>63.674139766115701</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="21">
         <v>24.320715281003299</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <v>44.664421737110999</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="23">
         <v>31.014862981885699</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="21">
         <v>10.133333333333301</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="22">
         <v>41.858937198067601</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="23">
         <v>48.007729468599102</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="21">
         <v>8.6408035749594703</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="22">
         <v>23.5219678095464</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="23">
         <v>67.837228615494197</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="21">
         <v>12.089549047418799</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="22">
         <v>38.917438211109797</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="23">
         <v>48.993012741471397</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="21">
         <v>4.4676526499671603</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="22">
         <v>29.371264152876002</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="23">
         <v>66.161083197156898</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="21">
         <v>4.2655721819294001</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="22">
         <v>21.938457681939699</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="23">
         <v>73.795970136130904</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="17">
         <v>28.311890690028701</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
         <v>46.523251173485903</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <v>25.1648581364854</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="17">
         <v>14.321840845683299</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="18">
         <v>47.1007704318002</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="19">
         <v>38.577388722516602</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="17">
         <v>8.9173449983030508</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="18">
         <v>21.814714454255</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="19">
         <v>69.267940547441896</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="25">
         <v>10.4441023886894</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="26">
         <v>31.9993158884898</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="27">
         <v>57.556581722820802</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="25">
         <v>3.1451284629935601</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="26">
         <v>21.437636185140001</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="27">
         <v>75.417235351866495</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="25">
         <v>3.0968259661622799</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="26">
         <v>15.5832233982406</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="27">
         <v>81.319950635597095</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="30">
         <v>31.2438823414053</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="31">
         <v>37.731825930787302</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="32">
         <v>31.024291727807402</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="30">
         <v>20.5778809762039</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="31">
         <v>37.886414060120899</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="32">
         <v>41.535704963675101</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="30">
         <v>11.022371042677699</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="31">
         <v>20.043649169518901</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="32">
         <v>68.933979787803395</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="34">
         <v>55.230905447597699</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="35">
         <v>38.0896904173851</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="36">
         <v>6.6794041350171698</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="34">
         <v>31.926288617176699</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="35">
         <v>53.534453457288002</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="36">
         <v>14.539257925535299</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="34">
         <v>18.2281787072606</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="35">
         <v>20.8580770000667</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="36">
         <v>60.913744292672703</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="21">
         <v>21.988739725663599</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="22">
         <v>56.719648381999498</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="23">
         <v>21.291611892336899</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="21">
         <v>9.3392777316559208</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="22">
         <v>55.1771345552079</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="23">
         <v>35.483587713136203</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="21">
         <v>7.2266749508128898</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="22">
         <v>25.279900590245401</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="23">
         <v>67.493424458941703</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="21">
         <v>37.679871483747498</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="22">
         <v>52.322521106060101</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="23">
         <v>9.9976074101924404</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="21">
         <v>15.315801303663701</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="22">
         <v>65.803551359856201</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="23">
         <v>18.880647336480099</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="21">
         <v>11.4484263453739</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="22">
         <v>23.8004885800346</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="23">
         <v>64.751085074591501</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="38">
         <v>66.859371258509199</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="39">
         <v>25.715230504338699</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="40">
         <v>7.4253982371520797</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="38">
         <v>44.805669783080397</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="39">
         <v>39.3780695445856</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="40">
         <v>15.816260672334</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="38">
         <v>21.264102780610401</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="39">
         <v>16.2458836443469</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="40">
         <v>62.490013575042703</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="38">
         <v>15.6794737628943</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="39">
         <v>63.991628046045797</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="40">
         <v>20.328898191059999</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="38">
         <v>5.5264770240700196</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="39">
         <v>60.372866520787802</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="40">
         <v>34.1006564551422</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="38">
         <v>5.0873913280214902</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="39">
         <v>29.500698767627998</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="40">
         <v>65.411909904350495</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>31.6832357347133</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="18">
         <v>45.8243059768322</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="19">
         <v>22.4924582884545</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="17">
         <v>14.0429157678576</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="18">
         <v>49.164534693387203</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="19">
         <v>36.792549538755303</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="17">
         <v>9.4808544514953397</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="18">
         <v>22.638731023565501</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <v>67.880414524939198</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="38">
         <v>15.629123185798299</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="39">
         <v>65.611131102314999</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="40">
         <v>18.759745711886801</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="38">
         <v>6.2700262161374898</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="39">
         <v>63.916399650451503</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="40">
         <v>29.813574133410999</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="38">
         <v>5.4761364495877798</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="39">
         <v>30.6406474548068</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="40">
         <v>63.883216095605498</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="38">
         <v>16.346704871060201</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="39">
         <v>59.247851002865403</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="40">
         <v>24.405444126074499</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="38">
         <v>6.7274065893613102</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="39">
         <v>52.857537272225301</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="40">
         <v>40.415056138413398</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="38">
         <v>6.1101710847903803</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="39">
         <v>29.338221470201201</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="40">
         <v>64.5516074450085</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="25">
         <v>39.671361502347402</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="26">
         <v>51.408450704225402</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="27">
         <v>8.92018779342723</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="25">
         <v>19.533231861998999</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="26">
         <v>64.2820903094876</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="27">
         <v>16.184677828513401</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="25">
         <v>14.861329147043399</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="26">
         <v>25.798011512297201</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="27">
         <v>59.3406593406594</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="30">
         <v>34.479841668297802</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="31">
         <v>46.438738611896198</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="32">
         <v>19.081419719806</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="30">
         <v>17.287199279245701</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="31">
         <v>50.492776835886197</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="32">
         <v>32.220023884868098</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="30">
         <v>10.7542125217121</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="31">
         <v>22.737206101395898</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="32">
         <v>66.508581376892096</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="34">
         <v>32.794283565250097</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="35">
         <v>39.902218879277903</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="36">
         <v>27.303497555471999</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="34">
         <v>15.9750058948361</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="35">
         <v>37.892006602216497</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="36">
         <v>46.132987502947401</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="34">
         <v>12.404510731175</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="35">
         <v>19.206984357948301</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="36">
         <v>68.388504910876705</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="21">
         <v>61.167760860455402</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="22">
         <v>21.3856683894399</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="23">
         <v>17.446570750104801</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="21">
         <v>40.781476121563003</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="22">
         <v>28.4804630969609</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="23">
         <v>30.738060781476101</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="21">
         <v>25.726428147855302</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="22">
         <v>14.6866969756869</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="23">
         <v>59.586874876457799</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="21">
         <v>60.666542888971399</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="22">
         <v>22.7905681396212</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="23">
         <v>16.5428889714074</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="21">
         <v>39.1021371343749</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="22">
         <v>30.599273031761999</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="23">
         <v>30.298589833863002</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="21">
         <v>21.527722693741602</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="22">
         <v>14.1508685650829</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="23">
         <v>64.321408741175603</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="21">
         <v>65.950588269428906</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="22">
         <v>23.439236337787101</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="23">
         <v>10.6101753927841</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="21">
         <v>47.344456048647601</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="22">
         <v>32.144335503492499</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="23">
         <v>20.5112084478599</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="21">
         <v>24.448467984622901</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="22">
         <v>13.6878430152854</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="23">
         <v>61.863689000091703</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="21">
         <v>19.4856081623013</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="22">
         <v>47.490840721332503</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="23">
         <v>33.0235511163662</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="21">
         <v>7.6768917124112503</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="22">
         <v>42.437978359608003</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="23">
         <v>49.885129927980799</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="21">
         <v>6.5255348237946196</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="22">
         <v>23.704598350002701</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="23">
         <v>69.769866826202701</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>53.178988725451802</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="22">
         <v>39.126478616924501</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="23">
         <v>7.6945326576237303</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="21">
         <v>35.1631025347831</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="22">
         <v>50.492539115489201</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="23">
         <v>14.344358349727599</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="21">
         <v>19.766883861824901</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="22">
         <v>21.8502328162139</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="23">
         <v>58.382883321961202</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="21">
         <v>20.894090560245601</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="22">
         <v>39.533768227168103</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="23">
         <v>39.572141212586402</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="21">
         <v>12.6742461690559</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="22">
         <v>35.442412259021303</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="23">
         <v>51.883341571922898</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="21">
         <v>12.0718259002635</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="22">
         <v>27.198204352493399</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="23">
         <v>60.729969747243103</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="21">
         <v>60.912753021242501</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="22">
         <v>28.395926639477601</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="23">
         <v>10.691320339279899</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="21">
         <v>41.967143646283397</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="22">
         <v>37.432936564990101</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="23">
         <v>20.599919788726499</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="21">
         <v>23.656345385317401</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="22">
         <v>16.583278265521301</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="23">
         <v>59.760376349161398</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="21">
         <v>9.4979647218453191</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="22">
         <v>39.213025780190002</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="23">
         <v>51.289009497964699</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="21">
         <v>4.1147132169576102</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="22">
         <v>29.925187032419</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="23">
         <v>65.960099750623499</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="21">
         <v>3.9603960396039599</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="22">
         <v>25.866336633663401</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="23">
         <v>70.173267326732699</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="21">
         <v>64.087963648373204</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="22">
         <v>24.343746085253201</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="23">
         <v>11.5682902663736</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="21">
         <v>42.312480739599401</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="22">
         <v>36.416640986132499</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="23">
         <v>21.2708782742681</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="21">
         <v>18.3649801470299</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="22">
         <v>15.8207859941555</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="23">
         <v>65.814233858814603</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="38">
         <v>62.909130319597303</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="39">
         <v>13.2318585775872</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="40">
         <v>23.859011102815401</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="38">
         <v>43.158680035243698</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="39">
         <v>14.642193338435501</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="40">
         <v>42.199126626320798</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="38">
         <v>21.017506724280899</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="39">
         <v>3.3928126032236099</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="40">
         <v>75.589680672495504</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="21">
         <v>50.897011246341101</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="22">
         <v>21.192035125558501</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="23">
         <v>27.910953628100501</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="21">
         <v>24.548179160183601</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="22">
         <v>25.404312174675599</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="23">
         <v>50.047508665140903</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="21">
         <v>18.284092051050099</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="22">
         <v>14.104612601748601</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="23">
         <v>67.611295347201306</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="21">
         <v>21.471669384299801</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="22">
         <v>70.818869275215803</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="23">
         <v>7.7094613404843999</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="21">
         <v>8.4672273605658805</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="22">
         <v>75.455006745342104</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="23">
         <v>16.077765894092099</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="21">
         <v>6.5408835380124</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="22">
         <v>32.569627073933802</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="23">
         <v>60.889489388053804</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="25">
         <v>40.363160178157102</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="26">
         <v>48.694669219348903</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="27">
         <v>10.942170602494</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="25">
         <v>22.193325977925699</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="26">
         <v>57.193750328366399</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="27">
         <v>20.612923693707899</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="25">
         <v>11.7501546072975</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="26">
         <v>21.838118591365301</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="27">
         <v>66.411726801337196</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="30">
         <v>46.8200198686948</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="31">
         <v>37.367565961535703</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="32">
         <v>15.8124141697695</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="30">
         <v>28.740475050754402</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="31">
         <v>43.809729694753102</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="32">
         <v>27.4497952544925</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="30">
         <v>16.134050504445</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="31">
         <v>19.523397113264</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="32">
         <v>64.342552382291004</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="13">
         <v>16.818978467701498</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="14">
         <v>35.636349260733198</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="15">
         <v>47.544672271565297</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="13">
         <v>6.5829311794408296</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="14">
         <v>27.079658059844402</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="15">
         <v>66.337410760714803</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="13">
         <v>7.0522176373325296</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="14">
         <v>23.676375749758801</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="15">
         <v>69.271406612908706</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="21">
         <v>25.473552115270898</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="22">
         <v>15.538863882076701</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="23">
         <v>58.987584002652298</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="21">
         <v>10.6839031727768</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="22">
         <v>12.5163748657602</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="23">
         <v>76.799721961463007</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="21">
         <v>10.9831039627166</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="22">
         <v>11.0898465172976</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="23">
         <v>77.9270495199858</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="38">
         <v>25.550751918581799</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="39">
         <v>34.1579959870095</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="40">
         <v>40.291252094408698</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="38">
         <v>13.158268051636901</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="39">
         <v>28.920448276405601</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="40">
         <v>57.921283671957497</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="38">
         <v>13.061757944131299</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="39">
         <v>21.517651875413399</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="40">
         <v>65.420590180455406</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="38">
         <v>53.758328706274298</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="39">
         <v>33.498750694058899</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="40">
         <v>12.742920599666901</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="38">
         <v>36.0151302647796</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="39">
         <v>41.835607123124703</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="40">
         <v>22.149262612095701</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="38">
         <v>19.8241817086504</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="39">
         <v>17.778174434949499</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="40">
         <v>62.397643856400201</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="21">
         <v>41.452523068264298</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="22">
         <v>33.904424070974699</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="23">
         <v>24.643052860760999</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="21">
         <v>22.390863460422501</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="22">
         <v>34.419962549281202</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="23">
         <v>43.189173990296297</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="21">
         <v>22.112507212192401</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="22">
         <v>21.7382205839709</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="23">
         <v>56.149272203836802</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="25">
         <v>17.054125998225398</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="26">
         <v>50.695430346051502</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="27">
         <v>32.250443655723203</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="25">
         <v>7.0430744180882998</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="26">
         <v>41.139954853273103</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="27">
         <v>51.816970728638601</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="25">
         <v>7.4580702174273297</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="26">
         <v>33.966345711287502</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="27">
         <v>58.575584071285199</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="30">
         <v>26.6971386973207</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="31">
         <v>26.491837473947999</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="32">
         <v>46.811023828731301</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="30">
         <v>12.310713121512499</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="31">
         <v>22.144925313033301</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="32">
         <v>65.544361565454196</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="30">
         <v>12.1311935304117</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="31">
         <v>17.324268646733</v>
       </c>
-      <c r="K45" s="26">
+      <c r="K45" s="32">
         <v>70.544537822855403</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="34">
         <v>55.124071417411201</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="35">
         <v>34.093717597261502</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="36">
         <v>10.7822109853273</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="34">
         <v>43.677363399826497</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="35">
         <v>37.301449634493899</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="36">
         <v>19.0211869656796</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="34">
         <v>20.6727115716753</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="35">
         <v>17.499136442141602</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="36">
         <v>61.828151986183101</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="21">
         <v>70.741263799665902</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="22">
         <v>21.441365413430201</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="23">
         <v>7.8173707869038802</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="21">
         <v>50.549824554675702</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="22">
         <v>33.758844170038202</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="23">
         <v>15.691331275286201</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="21">
         <v>21.418713067658999</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="22">
         <v>15.8637822806551</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="23">
         <v>62.7175046516859</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="38">
         <v>40.166204986149602</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="39">
         <v>45.630823470158703</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="40">
         <v>14.202971543691801</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="38">
         <v>28.2071873117848</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="39">
         <v>49.5282071873118</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="40">
         <v>22.2646055009034</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="38">
         <v>19.0960912052117</v>
       </c>
-      <c r="J48" s="29">
+      <c r="J48" s="39">
         <v>25.366449511400699</v>
       </c>
-      <c r="K48" s="30">
+      <c r="K48" s="40">
         <v>55.537459283387598</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="21">
         <v>52.195125137154498</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="22">
         <v>33.841893515857699</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="23">
         <v>13.962981346987799</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="21">
         <v>33.6208563345158</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="22">
         <v>40.703707941869297</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="23">
         <v>25.6754357236149</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="21">
         <v>17.745961182650198</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="22">
         <v>17.671455712706901</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="23">
         <v>64.582583104643007</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="21">
         <v>51.284662384458699</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="22">
         <v>28.7012376625411</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="23">
         <v>20.014099953000201</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="21">
         <v>32.685774022127397</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="22">
         <v>33.953306037111297</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="23">
         <v>33.360919940761399</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="21">
         <v>17.753064003631401</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="22">
         <v>15.442578302315001</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="23">
         <v>66.804357694053607</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="17">
         <v>29.0127265312098</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="18">
         <v>47.177575370972598</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="19">
         <v>23.809698097817598</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="17">
         <v>16.404515296964501</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="18">
         <v>46.528100942681299</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="19">
         <v>37.067383760354197</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="17">
         <v>10.2736280697886</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="18">
         <v>23.690774785700501</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="19">
         <v>66.035597144510902</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="21">
         <v>60.177786656012799</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="22">
         <v>23.067319216939701</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="23">
         <v>16.7548941270475</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="21">
         <v>42.506643314409999</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="22">
         <v>28.898417683295101</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="23">
         <v>28.594939002295</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="21">
         <v>20.382905275884301</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="22">
         <v>14.605123962998</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="23">
         <v>65.011970761117695</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="21">
         <v>57.343078245915699</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="22">
         <v>27.102321582115199</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="23">
         <v>15.554600171969099</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="21">
         <v>35.115558995908401</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="22">
         <v>36.038925135463899</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="23">
         <v>28.8455158686277</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="21">
         <v>20.3684513529073</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="22">
         <v>15.699481865285</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="23">
         <v>63.932066781807698</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="21">
         <v>48.338338668690803</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="22">
         <v>29.216857529454501</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="23">
         <v>22.4448038018547</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="21">
         <v>29.276763690182499</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="22">
         <v>34.443019240256497</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="23">
         <v>36.280217069560898</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="21">
         <v>16.0419975659564</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="22">
         <v>16.458672827409799</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="23">
         <v>67.499329606633793</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="21">
         <v>75.807139150418905</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="22">
         <v>17.087997627696598</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="23">
         <v>7.1048632218845</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="21">
         <v>62.310659939011899</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="22">
         <v>23.969016854072802</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="23">
         <v>13.7203232069153</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="21">
         <v>23.719915708529001</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="22">
         <v>13.3773099612872</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="23">
         <v>62.902774330183902</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="21">
         <v>76.735843585601302</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="22">
         <v>20.004970796570099</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="23">
         <v>3.2591856178285901</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="21">
         <v>61.256552652778502</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="22">
         <v>31.213393680654701</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="23">
         <v>7.5300536665667801</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="21">
         <v>22.2452151327415</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="22">
         <v>15.610908858657501</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="23">
         <v>62.143876008601097</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="21">
         <v>34.150291809630801</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="22">
         <v>29.399627593696799</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="23">
         <v>36.450080596672301</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="21">
         <v>16.939723950853701</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="22">
         <v>29.751376256582098</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="23">
         <v>53.308899792564198</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="21">
         <v>10.7809442370624</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="22">
         <v>16.311964529443699</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="23">
         <v>72.907091233494</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="21">
         <v>53.213966519717601</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="22">
         <v>34.071760677237599</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="23">
         <v>12.7142728030448</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="21">
         <v>35.121614135680097</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="22">
         <v>42.651467993124101</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="23">
         <v>22.226917871195798</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="21">
         <v>18.339871238209302</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="22">
         <v>17.8116484503668</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="23">
         <v>63.848480311423899</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="21">
         <v>58.016386915613701</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="22">
         <v>26.8477190335492</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="23">
         <v>15.1358940508372</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="21">
         <v>39.346834374917599</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="22">
         <v>35.035466603380499</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="23">
         <v>25.617699021701899</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="21">
         <v>18.7783785294159</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="22">
         <v>15.284239350629401</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="23">
         <v>65.937382119954805</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="43">
         <v>46.243099468031701</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="44">
         <v>39.921710328214402</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="45">
         <v>13.8351902037539</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="43">
         <v>30.908552899256499</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="44">
         <v>47.388018296817798</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="45">
         <v>21.7034288039257</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="43">
         <v>17.780329123612699</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="44">
         <v>21.535910192626599</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="45">
         <v>60.683760683760703</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23" t="s">
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="28"/>
+      <c r="B61" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="30">
         <v>44.671278671283098</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="31">
         <v>30.021719580986598</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="32">
         <v>25.3070017477303</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="30">
         <v>28.600022415936401</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="31">
         <v>33.158159784684202</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="32">
         <v>38.241817799379398</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="30">
         <v>14.5449501517122</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J61" s="31">
         <v>16.896989096729001</v>
       </c>
-      <c r="K61" s="26">
+      <c r="K61" s="32">
         <v>68.558060751558799</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33" t="s">
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="46"/>
+      <c r="B62" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="48">
         <v>39.0836231788441</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="49">
         <v>34.420018297432698</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="50">
         <v>26.496358523723199</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="48">
         <v>23.822928513987101</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G62" s="49">
         <v>37.4875874068454</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="50">
         <v>38.689484079167499</v>
       </c>
-      <c r="I62" s="34">
+      <c r="I62" s="48">
         <v>13.725459316176799</v>
       </c>
-      <c r="J62" s="35">
+      <c r="J62" s="49">
         <v>18.8706342083766</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="50">
         <v>67.403906475446504</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="37" t="s">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="46"/>
+      <c r="B63" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="52">
         <v>15.458556839603</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="53">
         <v>37.938703355681596</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="54">
         <v>46.602739804715398</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="52">
         <v>9.6746819584111101</v>
       </c>
-      <c r="G63" s="39">
+      <c r="G63" s="53">
         <v>32.105032016383198</v>
       </c>
-      <c r="H63" s="40">
+      <c r="H63" s="54">
         <v>58.220286025205802</v>
       </c>
-      <c r="I63" s="38">
+      <c r="I63" s="52">
         <v>7.9380078817115498</v>
       </c>
-      <c r="J63" s="39">
+      <c r="J63" s="53">
         <v>24.270360240326202</v>
       </c>
-      <c r="K63" s="40">
+      <c r="K63" s="54">
         <v>67.791631877962303</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="42" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="55"/>
+      <c r="B64" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="57">
         <v>16.377479433382099</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="58">
         <v>40.368147260504102</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="59">
         <v>43.254373306113798</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="57">
         <v>8.9841946469653209</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="58">
         <v>35.178916206017298</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="59">
         <v>55.836889147017402</v>
       </c>
-      <c r="I64" s="34">
+      <c r="I64" s="57">
         <v>8.0509658551124197</v>
       </c>
-      <c r="J64" s="35">
+      <c r="J64" s="58">
         <v>24.9558664340253</v>
       </c>
-      <c r="K64" s="36">
+      <c r="K64" s="59">
         <v>66.993167710862394</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="33" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="55"/>
+      <c r="B65" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="60">
         <v>20.332256893604001</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="61">
         <v>43.945455042565001</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E65" s="62">
         <v>35.722288063831101</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="60">
         <v>12.530160417461801</v>
       </c>
-      <c r="G65" s="44">
+      <c r="G65" s="61">
         <v>37.311519733860699</v>
       </c>
-      <c r="H65" s="45">
+      <c r="H65" s="62">
         <v>50.1583198486775</v>
       </c>
-      <c r="I65" s="43">
+      <c r="I65" s="60">
         <v>10.147394402617699</v>
       </c>
-      <c r="J65" s="44">
+      <c r="J65" s="61">
         <v>27.798257984713299</v>
       </c>
-      <c r="K65" s="45">
+      <c r="K65" s="62">
         <v>62.054347612668998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
-      <c r="B66" s="46" t="s">
+    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="55"/>
+      <c r="B66" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="47">
+      <c r="C66" s="64">
         <v>18.766722291109399</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="65">
         <v>37.445989719356398</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="66">
         <v>43.7872879895342</v>
       </c>
-      <c r="F66" s="47">
+      <c r="F66" s="64">
         <v>12.339241237572001</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="65">
         <v>33.118736283898997</v>
       </c>
-      <c r="H66" s="49">
+      <c r="H66" s="66">
         <v>54.542022478528999</v>
       </c>
-      <c r="I66" s="47">
+      <c r="I66" s="64">
         <v>8.9920199965437604</v>
       </c>
-      <c r="J66" s="48">
+      <c r="J66" s="65">
         <v>23.286960773583999</v>
       </c>
-      <c r="K66" s="49">
+      <c r="K66" s="66">
         <v>67.721019229872297</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="50" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="55"/>
+      <c r="B67" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="60">
         <v>40.084640904880601</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="61">
         <v>32.289785485742101</v>
       </c>
-      <c r="E67" s="53">
+      <c r="E67" s="62">
         <v>27.625573609377302</v>
       </c>
-      <c r="F67" s="51">
+      <c r="F67" s="60">
         <v>23.474868727371</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="61">
         <v>36.393551725769001</v>
       </c>
-      <c r="H67" s="53">
+      <c r="H67" s="62">
         <v>40.131579546860003</v>
       </c>
-      <c r="I67" s="51">
+      <c r="I67" s="60">
         <v>14.247093709016999</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="61">
         <v>17.943750629265399</v>
       </c>
-      <c r="K67" s="53">
+      <c r="K67" s="62">
         <v>67.809155661717597</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="33" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="55"/>
+      <c r="B68" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="60">
         <v>41.646985030480003</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="61">
         <v>27.551046163041999</v>
       </c>
-      <c r="E68" s="45">
+      <c r="E68" s="62">
         <v>30.801968806478101</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="60">
         <v>25.455051618661699</v>
       </c>
-      <c r="G68" s="44">
+      <c r="G68" s="61">
         <v>30.0352678361673</v>
       </c>
-      <c r="H68" s="45">
+      <c r="H68" s="62">
         <v>44.509680545171101</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="60">
         <v>14.8248227477974</v>
       </c>
-      <c r="J68" s="44">
+      <c r="J68" s="61">
         <v>16.367370418605802</v>
       </c>
-      <c r="K68" s="45">
+      <c r="K68" s="62">
         <v>68.8078068335968</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="33" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="55"/>
+      <c r="B69" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="60">
         <v>32.325780827551498</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="61">
         <v>49.154337676976198</v>
       </c>
-      <c r="E69" s="45">
+      <c r="E69" s="62">
         <v>18.519881495472301</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="60">
         <v>16.382889460468999</v>
       </c>
-      <c r="G69" s="44">
+      <c r="G69" s="61">
         <v>52.872189966873002</v>
       </c>
-      <c r="H69" s="45">
+      <c r="H69" s="62">
         <v>30.744920572658099</v>
       </c>
-      <c r="I69" s="43">
+      <c r="I69" s="60">
         <v>10.205254023043</v>
       </c>
-      <c r="J69" s="44">
+      <c r="J69" s="61">
         <v>23.5318718207008</v>
       </c>
-      <c r="K69" s="45">
+      <c r="K69" s="62">
         <v>66.262874156256203</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="33" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="55"/>
+      <c r="B70" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="60">
         <v>39.1664587988246</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="61">
         <v>44.176781427406397</v>
       </c>
-      <c r="E70" s="45">
+      <c r="E70" s="62">
         <v>16.656759773769</v>
       </c>
-      <c r="F70" s="43">
+      <c r="F70" s="60">
         <v>22.0691721052657</v>
       </c>
-      <c r="G70" s="44">
+      <c r="G70" s="61">
         <v>49.205596232511802</v>
       </c>
-      <c r="H70" s="45">
+      <c r="H70" s="62">
         <v>28.725231662222502</v>
       </c>
-      <c r="I70" s="43">
+      <c r="I70" s="60">
         <v>12.941056867781899</v>
       </c>
-      <c r="J70" s="44">
+      <c r="J70" s="61">
         <v>21.8332808762271</v>
       </c>
-      <c r="K70" s="45">
+      <c r="K70" s="62">
         <v>65.225662255990997</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="33" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="55"/>
+      <c r="B71" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="60">
         <v>44.671278671283098</v>
       </c>
-      <c r="D71" s="44">
+      <c r="D71" s="61">
         <v>30.021719580986598</v>
       </c>
-      <c r="E71" s="45">
+      <c r="E71" s="62">
         <v>25.3070017477303</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="60">
         <v>28.600022415936401</v>
       </c>
-      <c r="G71" s="44">
+      <c r="G71" s="61">
         <v>33.158159784684202</v>
       </c>
-      <c r="H71" s="45">
+      <c r="H71" s="62">
         <v>38.241817799379398</v>
       </c>
-      <c r="I71" s="43">
+      <c r="I71" s="60">
         <v>14.5449501517122</v>
       </c>
-      <c r="J71" s="44">
+      <c r="J71" s="61">
         <v>16.896989096729001</v>
       </c>
-      <c r="K71" s="45">
+      <c r="K71" s="62">
         <v>68.558060751558799</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="33" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="55"/>
+      <c r="B72" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="60">
         <v>50.731633469455097</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="61">
         <v>30.961936282829601</v>
       </c>
-      <c r="E72" s="45">
+      <c r="E72" s="62">
         <v>18.306430247715301</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F72" s="60">
         <v>31.987743919302801</v>
       </c>
-      <c r="G72" s="44">
+      <c r="G72" s="61">
         <v>36.647295719499802</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H72" s="62">
         <v>31.364960361197401</v>
       </c>
-      <c r="I72" s="43">
+      <c r="I72" s="60">
         <v>17.516095431881102</v>
       </c>
-      <c r="J72" s="44">
+      <c r="J72" s="61">
         <v>16.590637271745798</v>
       </c>
-      <c r="K72" s="45">
+      <c r="K72" s="62">
         <v>65.893267296373196</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="33" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="55"/>
+      <c r="B73" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="43">
+      <c r="C73" s="60">
         <v>31.380167630285701</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="61">
         <v>44.9886006638841</v>
       </c>
-      <c r="E73" s="45">
+      <c r="E73" s="62">
         <v>23.631231705830199</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="60">
         <v>17.899305124504401</v>
       </c>
-      <c r="G73" s="44">
+      <c r="G73" s="61">
         <v>48.271069451926003</v>
       </c>
-      <c r="H73" s="45">
+      <c r="H73" s="62">
         <v>33.829625423569603</v>
       </c>
-      <c r="I73" s="43">
+      <c r="I73" s="60">
         <v>10.522554598877001</v>
       </c>
-      <c r="J73" s="44">
+      <c r="J73" s="61">
         <v>23.0237041599345</v>
       </c>
-      <c r="K73" s="45">
+      <c r="K73" s="62">
         <v>66.453741241188496</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="33" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="55"/>
+      <c r="B74" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="60">
         <v>27.8328211398902</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="61">
         <v>36.657934409546897</v>
       </c>
-      <c r="E74" s="45">
+      <c r="E74" s="62">
         <v>35.509244450562903</v>
       </c>
-      <c r="F74" s="43">
+      <c r="F74" s="60">
         <v>13.9827235277101</v>
       </c>
-      <c r="G74" s="44">
+      <c r="G74" s="61">
         <v>32.041002329866402</v>
       </c>
-      <c r="H74" s="45">
+      <c r="H74" s="62">
         <v>53.976274142423598</v>
       </c>
-      <c r="I74" s="43">
+      <c r="I74" s="60">
         <v>13.313961208721</v>
       </c>
-      <c r="J74" s="44">
+      <c r="J74" s="61">
         <v>23.747001850760601</v>
       </c>
-      <c r="K74" s="45">
+      <c r="K74" s="62">
         <v>62.939036940518399</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="46" t="s">
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="55"/>
+      <c r="B75" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="52">
         <v>59.0874733915403</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="53">
         <v>32.477945359511303</v>
       </c>
-      <c r="E75" s="49">
+      <c r="E75" s="54">
         <v>8.4345812489483496</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="52">
         <v>40.5914182124965</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G75" s="53">
         <v>42.3858135676548</v>
       </c>
-      <c r="H75" s="49">
+      <c r="H75" s="54">
         <v>17.0227682198487</v>
       </c>
-      <c r="I75" s="47">
+      <c r="I75" s="52">
         <v>19.7249756128261</v>
       </c>
-      <c r="J75" s="48">
+      <c r="J75" s="53">
         <v>17.836306995185499</v>
       </c>
-      <c r="K75" s="49">
+      <c r="K75" s="54">
         <v>62.438717391988398</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="50" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="55"/>
+      <c r="B76" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="68">
         <v>12.6102542235874</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="69">
         <v>46.6302271061639</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="70">
         <v>40.759518670248703</v>
       </c>
-      <c r="F76" s="51">
+      <c r="F76" s="68">
         <v>6.2764259743678403</v>
       </c>
-      <c r="G76" s="52">
+      <c r="G76" s="69">
         <v>36.853215537239002</v>
       </c>
-      <c r="H76" s="53">
+      <c r="H76" s="70">
         <v>56.870358488393201</v>
       </c>
-      <c r="I76" s="51">
+      <c r="I76" s="68">
         <v>5.8147491538389904</v>
       </c>
-      <c r="J76" s="52">
+      <c r="J76" s="69">
         <v>28.357263740214901</v>
       </c>
-      <c r="K76" s="53">
+      <c r="K76" s="70">
         <v>65.827987105946207</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="33" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="55"/>
+      <c r="B77" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="60">
         <v>15.2191945341165</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="61">
         <v>37.322837528713102</v>
       </c>
-      <c r="E77" s="45">
+      <c r="E77" s="62">
         <v>47.457967937170402</v>
       </c>
-      <c r="F77" s="43">
+      <c r="F77" s="60">
         <v>8.0684747715634799</v>
       </c>
-      <c r="G77" s="44">
+      <c r="G77" s="61">
         <v>31.227862410777099</v>
       </c>
-      <c r="H77" s="45">
+      <c r="H77" s="62">
         <v>60.703662817659499</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="60">
         <v>7.6084037945775203</v>
       </c>
-      <c r="J77" s="44">
+      <c r="J77" s="61">
         <v>23.302485799045201</v>
       </c>
-      <c r="K77" s="45">
+      <c r="K77" s="62">
         <v>69.089110406377301</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="33" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="55"/>
+      <c r="B78" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="43">
+      <c r="C78" s="60">
         <v>2.4214270202857202</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="61">
         <v>27.348524255602399</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="62">
         <v>70.230048724111896</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="60">
         <v>1.5681617763103</v>
       </c>
-      <c r="G78" s="44">
+      <c r="G78" s="61">
         <v>18.4597241495965</v>
       </c>
-      <c r="H78" s="45">
+      <c r="H78" s="62">
         <v>79.972114074093199</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="60">
         <v>1.39245358260444</v>
       </c>
-      <c r="J78" s="44">
+      <c r="J78" s="61">
         <v>17.419339650433798</v>
       </c>
-      <c r="K78" s="45">
+      <c r="K78" s="62">
         <v>81.188206766961798</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="41"/>
-      <c r="B79" s="46" t="s">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="55"/>
+      <c r="B79" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="64">
         <v>3.89192270719168</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="65">
         <v>25.649643388171601</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E79" s="66">
         <v>70.458433904636806</v>
       </c>
-      <c r="F79" s="47">
+      <c r="F79" s="64">
         <v>2.4142127743470798</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G79" s="65">
         <v>19.9660764105368</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H79" s="66">
         <v>77.619710815116093</v>
       </c>
-      <c r="I79" s="47">
+      <c r="I79" s="64">
         <v>2.2039675116654101</v>
       </c>
-      <c r="J79" s="48">
+      <c r="J79" s="65">
         <v>16.574436323806498</v>
       </c>
-      <c r="K79" s="49">
+      <c r="K79" s="66">
         <v>81.221596164528094</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="50" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="55"/>
+      <c r="B80" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="60">
         <v>37.1855254142665</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="61">
         <v>35.002918263252703</v>
       </c>
-      <c r="E80" s="53">
+      <c r="E80" s="62">
         <v>27.811556322480801</v>
       </c>
-      <c r="F80" s="51">
+      <c r="F80" s="60">
         <v>25.289425686789802</v>
       </c>
-      <c r="G80" s="52">
+      <c r="G80" s="61">
         <v>35.658265306683298</v>
       </c>
-      <c r="H80" s="53">
+      <c r="H80" s="62">
         <v>39.052309006526997</v>
       </c>
-      <c r="I80" s="51">
+      <c r="I80" s="60">
         <v>14.273440391154301</v>
       </c>
-      <c r="J80" s="52">
+      <c r="J80" s="61">
         <v>19.393574749232499</v>
       </c>
-      <c r="K80" s="53">
+      <c r="K80" s="62">
         <v>66.332984859613205</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="33" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="55"/>
+      <c r="B81" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="60">
         <v>11.961026209530701</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="61">
         <v>25.0999375126549</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="62">
         <v>62.939036277814402</v>
       </c>
-      <c r="F81" s="43">
+      <c r="F81" s="60">
         <v>8.3876216707698408</v>
       </c>
-      <c r="G81" s="44">
+      <c r="G81" s="61">
         <v>22.404678293257</v>
       </c>
-      <c r="H81" s="45">
+      <c r="H81" s="62">
         <v>69.207700035973204</v>
       </c>
-      <c r="I81" s="43">
+      <c r="I81" s="60">
         <v>6.3842877956944202</v>
       </c>
-      <c r="J81" s="44">
+      <c r="J81" s="61">
         <v>16.001704378252501</v>
       </c>
-      <c r="K81" s="45">
+      <c r="K81" s="62">
         <v>77.614007826053097</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="33" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="55"/>
+      <c r="B82" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="43">
+      <c r="C82" s="60">
         <v>39.2888146622996</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D82" s="61">
         <v>34.357004626100903</v>
       </c>
-      <c r="E82" s="45">
+      <c r="E82" s="62">
         <v>26.3541807115996</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="60">
         <v>23.668274142872399</v>
       </c>
-      <c r="G82" s="44">
+      <c r="G82" s="61">
         <v>37.6805046958887</v>
       </c>
-      <c r="H82" s="45">
+      <c r="H82" s="62">
         <v>38.651221161238901</v>
       </c>
-      <c r="I82" s="43">
+      <c r="I82" s="60">
         <v>13.6672392400941</v>
       </c>
-      <c r="J82" s="44">
+      <c r="J82" s="61">
         <v>18.815074555925801</v>
       </c>
-      <c r="K82" s="45">
+      <c r="K82" s="62">
         <v>67.517686203980205</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41"/>
-      <c r="B83" s="46" t="s">
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="55"/>
+      <c r="B83" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="52">
         <v>15.737895229084501</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="53">
         <v>38.964101144248303</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E83" s="54">
         <v>45.298003626667203</v>
       </c>
-      <c r="F83" s="47">
+      <c r="F83" s="52">
         <v>9.7862405891463506</v>
       </c>
-      <c r="G83" s="48">
+      <c r="G83" s="53">
         <v>32.945830376328402</v>
       </c>
-      <c r="H83" s="49">
+      <c r="H83" s="54">
         <v>57.267929034525302</v>
       </c>
-      <c r="I83" s="47">
+      <c r="I83" s="52">
         <v>8.0720427537210693</v>
       </c>
-      <c r="J83" s="48">
+      <c r="J83" s="53">
         <v>24.9836729149437</v>
       </c>
-      <c r="K83" s="49">
+      <c r="K83" s="54">
         <v>66.944284331335197</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="50" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="55"/>
+      <c r="B84" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="68">
         <v>55.1111484292135</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="69">
         <v>30.958776043451099</v>
       </c>
-      <c r="E84" s="53">
+      <c r="E84" s="70">
         <v>13.930075527335401</v>
       </c>
-      <c r="F84" s="51">
+      <c r="F84" s="68">
         <v>35.805988255695397</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="69">
         <v>39.227208129125302</v>
       </c>
-      <c r="H84" s="53">
+      <c r="H84" s="70">
         <v>24.966803615179401</v>
       </c>
-      <c r="I84" s="51">
+      <c r="I84" s="68">
         <v>18.236502288294201</v>
       </c>
-      <c r="J84" s="52">
+      <c r="J84" s="69">
         <v>17.298751680791401</v>
       </c>
-      <c r="K84" s="53">
+      <c r="K84" s="70">
         <v>64.464746030914498</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="33" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="55"/>
+      <c r="B85" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="60">
         <v>40.543877371045603</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="61">
         <v>15.396363461446001</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="62">
         <v>44.059759167508503</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="60">
         <v>32.829096231088798</v>
       </c>
-      <c r="G85" s="44">
+      <c r="G85" s="61">
         <v>15.7839916818291</v>
       </c>
-      <c r="H85" s="45">
+      <c r="H85" s="62">
         <v>51.386912087082102</v>
       </c>
-      <c r="I85" s="43">
+      <c r="I85" s="60">
         <v>17.753749402430302</v>
       </c>
-      <c r="J85" s="44">
+      <c r="J85" s="61">
         <v>4.8568056240109998</v>
       </c>
-      <c r="K85" s="45">
+      <c r="K85" s="62">
         <v>77.389444973558696</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
-      <c r="B86" s="33" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="55"/>
+      <c r="B86" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="43">
+      <c r="C86" s="60">
         <v>30.875525211150201</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="61">
         <v>36.203160660875703</v>
       </c>
-      <c r="E86" s="45">
+      <c r="E86" s="62">
         <v>32.9213141279741</v>
       </c>
-      <c r="F86" s="43">
+      <c r="F86" s="60">
         <v>16.342852755886799</v>
       </c>
-      <c r="G86" s="44">
+      <c r="G86" s="61">
         <v>36.730120549488802</v>
       </c>
-      <c r="H86" s="45">
+      <c r="H86" s="62">
         <v>46.927026694624303</v>
       </c>
-      <c r="I86" s="43">
+      <c r="I86" s="60">
         <v>11.170932779738299</v>
       </c>
-      <c r="J86" s="44">
+      <c r="J86" s="61">
         <v>19.686144841926101</v>
       </c>
-      <c r="K86" s="45">
+      <c r="K86" s="62">
         <v>69.142922378335598</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
-      <c r="B87" s="33" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="55"/>
+      <c r="B87" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="43">
+      <c r="C87" s="60">
         <v>29.484922204096499</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D87" s="61">
         <v>33.181151170954799</v>
       </c>
-      <c r="E87" s="45">
+      <c r="E87" s="62">
         <v>37.333926624948703</v>
       </c>
-      <c r="F87" s="43">
+      <c r="F87" s="60">
         <v>17.841269869050901</v>
       </c>
-      <c r="G87" s="44">
+      <c r="G87" s="61">
         <v>31.8656019928011</v>
       </c>
-      <c r="H87" s="45">
+      <c r="H87" s="62">
         <v>50.293128138147999</v>
       </c>
-      <c r="I87" s="43">
+      <c r="I87" s="60">
         <v>14.4010434392261</v>
       </c>
-      <c r="J87" s="44">
+      <c r="J87" s="61">
         <v>19.927613671792301</v>
       </c>
-      <c r="K87" s="45">
+      <c r="K87" s="62">
         <v>65.671342888981599</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
-      <c r="B88" s="33" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="55"/>
+      <c r="B88" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="43">
+      <c r="C88" s="60">
         <v>14.066931896217101</v>
       </c>
-      <c r="D88" s="44">
+      <c r="D88" s="61">
         <v>39.737407816558701</v>
       </c>
-      <c r="E88" s="45">
+      <c r="E88" s="62">
         <v>46.1956602872242</v>
       </c>
-      <c r="F88" s="43">
+      <c r="F88" s="60">
         <v>5.6999818873392503</v>
       </c>
-      <c r="G88" s="44">
+      <c r="G88" s="61">
         <v>31.4587936967941</v>
       </c>
-      <c r="H88" s="45">
+      <c r="H88" s="62">
         <v>62.841224415866698</v>
       </c>
-      <c r="I88" s="43">
+      <c r="I88" s="60">
         <v>5.4320826913757099</v>
       </c>
-      <c r="J88" s="44">
+      <c r="J88" s="61">
         <v>22.507070575555701</v>
       </c>
-      <c r="K88" s="45">
+      <c r="K88" s="62">
         <v>72.060846733068601</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
-      <c r="B89" s="33" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="55"/>
+      <c r="B89" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="43">
+      <c r="C89" s="60">
         <v>9.43298478383754</v>
       </c>
-      <c r="D89" s="44">
+      <c r="D89" s="61">
         <v>50.032250238645297</v>
       </c>
-      <c r="E89" s="45">
+      <c r="E89" s="62">
         <v>40.534764977517199</v>
       </c>
-      <c r="F89" s="43">
+      <c r="F89" s="60">
         <v>4.6625084580406702</v>
       </c>
-      <c r="G89" s="44">
+      <c r="G89" s="61">
         <v>40.589020963893802</v>
       </c>
-      <c r="H89" s="45">
+      <c r="H89" s="62">
         <v>54.7484705780656</v>
       </c>
-      <c r="I89" s="43">
+      <c r="I89" s="60">
         <v>4.5077477588001003</v>
       </c>
-      <c r="J89" s="44">
+      <c r="J89" s="61">
         <v>33.755058659931699</v>
       </c>
-      <c r="K89" s="45">
+      <c r="K89" s="62">
         <v>61.737193581268301</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41"/>
-      <c r="B90" s="46" t="s">
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="55"/>
+      <c r="B90" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="64">
         <v>2.64854379923809</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="65">
         <v>21.672154794925898</v>
       </c>
-      <c r="E90" s="49">
+      <c r="E90" s="66">
         <v>75.6793014058361</v>
       </c>
-      <c r="F90" s="47">
+      <c r="F90" s="64">
         <v>1.9709008895792599</v>
       </c>
-      <c r="G90" s="48">
+      <c r="G90" s="65">
         <v>15.6742521159518</v>
       </c>
-      <c r="H90" s="49">
+      <c r="H90" s="66">
         <v>82.3548469944689</v>
       </c>
-      <c r="I90" s="47">
+      <c r="I90" s="64">
         <v>1.74880188548955</v>
       </c>
-      <c r="J90" s="48">
+      <c r="J90" s="65">
         <v>14.0130304114846</v>
       </c>
-      <c r="K90" s="49">
+      <c r="K90" s="66">
         <v>84.238167703025795</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="50" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="55"/>
+      <c r="B91" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="60">
         <v>51.311414859508602</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="61">
         <v>35.282851910064501</v>
       </c>
-      <c r="E91" s="53">
+      <c r="E91" s="62">
         <v>13.4057332304269</v>
       </c>
-      <c r="F91" s="51">
+      <c r="F91" s="60">
         <v>32.929029009768598</v>
       </c>
-      <c r="G91" s="52">
+      <c r="G91" s="61">
         <v>43.039502014775202</v>
       </c>
-      <c r="H91" s="53">
+      <c r="H91" s="62">
         <v>24.0314689754562</v>
       </c>
-      <c r="I91" s="51">
+      <c r="I91" s="60">
         <v>17.0299913883503</v>
       </c>
-      <c r="J91" s="52">
+      <c r="J91" s="61">
         <v>18.9112560706272</v>
       </c>
-      <c r="K91" s="53">
+      <c r="K91" s="62">
         <v>64.0587525410225</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="33" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="55"/>
+      <c r="B92" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="43">
+      <c r="C92" s="60">
         <v>41.048109634550201</v>
       </c>
-      <c r="D92" s="44">
+      <c r="D92" s="61">
         <v>36.397355639439901</v>
       </c>
-      <c r="E92" s="45">
+      <c r="E92" s="62">
         <v>22.554534726010001</v>
       </c>
-      <c r="F92" s="43">
+      <c r="F92" s="60">
         <v>28.3355886809947</v>
       </c>
-      <c r="G92" s="44">
+      <c r="G92" s="61">
         <v>35.704758440807602</v>
       </c>
-      <c r="H92" s="45">
+      <c r="H92" s="62">
         <v>35.959652878197701</v>
       </c>
-      <c r="I92" s="43">
+      <c r="I92" s="60">
         <v>19.744578248617501</v>
       </c>
-      <c r="J92" s="44">
+      <c r="J92" s="61">
         <v>19.949183887268699</v>
       </c>
-      <c r="K92" s="45">
+      <c r="K92" s="62">
         <v>60.306237864113903</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
-      <c r="B93" s="33" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="55"/>
+      <c r="B93" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="43">
+      <c r="C93" s="60">
         <v>38.260687091552299</v>
       </c>
-      <c r="D93" s="44">
+      <c r="D93" s="61">
         <v>36.432040290185299</v>
       </c>
-      <c r="E93" s="45">
+      <c r="E93" s="62">
         <v>25.307272618262498</v>
       </c>
-      <c r="F93" s="43">
+      <c r="F93" s="60">
         <v>24.328825078200602</v>
       </c>
-      <c r="G93" s="44">
+      <c r="G93" s="61">
         <v>38.911267637329303</v>
       </c>
-      <c r="H93" s="45">
+      <c r="H93" s="62">
         <v>36.759907284470202</v>
       </c>
-      <c r="I93" s="43">
+      <c r="I93" s="60">
         <v>16.213357857224999</v>
       </c>
-      <c r="J93" s="44">
+      <c r="J93" s="61">
         <v>20.797792849752799</v>
       </c>
-      <c r="K93" s="45">
+      <c r="K93" s="62">
         <v>62.988849293022199</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="33" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="55"/>
+      <c r="B94" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="60">
         <v>19.439735715468402</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="61">
         <v>37.818909229346602</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E94" s="62">
         <v>42.741355055185103</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F94" s="60">
         <v>11.1669327908638</v>
       </c>
-      <c r="G94" s="44">
+      <c r="G94" s="61">
         <v>33.390484595335401</v>
       </c>
-      <c r="H94" s="45">
+      <c r="H94" s="62">
         <v>55.442582613800802</v>
       </c>
-      <c r="I94" s="43">
+      <c r="I94" s="60">
         <v>8.8915457002891198</v>
       </c>
-      <c r="J94" s="44">
+      <c r="J94" s="61">
         <v>22.975340529282001</v>
       </c>
-      <c r="K94" s="45">
+      <c r="K94" s="62">
         <v>68.133113770429006</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
-      <c r="B95" s="33" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="55"/>
+      <c r="B95" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="43">
+      <c r="C95" s="60">
         <v>55.818625491722202</v>
       </c>
-      <c r="D95" s="44">
+      <c r="D95" s="61">
         <v>29.9846134890416</v>
       </c>
-      <c r="E95" s="45">
+      <c r="E95" s="62">
         <v>14.196761019236099</v>
       </c>
-      <c r="F95" s="43">
+      <c r="F95" s="60">
         <v>38.517778613299299</v>
       </c>
-      <c r="G95" s="44">
+      <c r="G95" s="61">
         <v>37.477915651336801</v>
       </c>
-      <c r="H95" s="45">
+      <c r="H95" s="62">
         <v>24.0043057353639</v>
       </c>
-      <c r="I95" s="43">
+      <c r="I95" s="60">
         <v>18.7031424898598</v>
       </c>
-      <c r="J95" s="44">
+      <c r="J95" s="61">
         <v>16.414777824060501</v>
       </c>
-      <c r="K95" s="45">
+      <c r="K95" s="62">
         <v>64.882079686079706</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="41"/>
-      <c r="B96" s="46" t="s">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="55"/>
+      <c r="B96" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="47">
+      <c r="C96" s="52">
         <v>19.328038854544701</v>
       </c>
-      <c r="D96" s="48">
+      <c r="D96" s="53">
         <v>22.963586021603401</v>
       </c>
-      <c r="E96" s="49">
+      <c r="E96" s="54">
         <v>57.708375123851901</v>
       </c>
-      <c r="F96" s="47">
+      <c r="F96" s="52">
         <v>14.631258315596201</v>
       </c>
-      <c r="G96" s="48">
+      <c r="G96" s="53">
         <v>19.8826079497798</v>
       </c>
-      <c r="H96" s="49">
+      <c r="H96" s="54">
         <v>65.486133734624005</v>
       </c>
-      <c r="I96" s="47">
+      <c r="I96" s="52">
         <v>8.7187726189444099</v>
       </c>
-      <c r="J96" s="48">
+      <c r="J96" s="53">
         <v>11.760679107021399</v>
       </c>
-      <c r="K96" s="49">
+      <c r="K96" s="54">
         <v>79.520548274034198</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
-      <c r="B97" s="50" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="55"/>
+      <c r="B97" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="68">
         <v>43.857649300504796</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="69">
         <v>35.570990237524903</v>
       </c>
-      <c r="E97" s="53">
+      <c r="E97" s="70">
         <v>20.571360461970301</v>
       </c>
-      <c r="F97" s="51">
+      <c r="F97" s="68">
         <v>27.7303863972542</v>
       </c>
-      <c r="G97" s="52">
+      <c r="G97" s="69">
         <v>40.104325443301803</v>
       </c>
-      <c r="H97" s="53">
+      <c r="H97" s="70">
         <v>32.165288159444003</v>
       </c>
-      <c r="I97" s="51">
+      <c r="I97" s="68">
         <v>14.6306473704525</v>
       </c>
-      <c r="J97" s="52">
+      <c r="J97" s="69">
         <v>18.8857479393704</v>
       </c>
-      <c r="K97" s="53">
+      <c r="K97" s="70">
         <v>66.483604690177103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41"/>
-      <c r="B98" s="46" t="s">
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="55"/>
+      <c r="B98" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="47">
+      <c r="C98" s="64">
         <v>32.625747577467102</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="65">
         <v>34.373958189062101</v>
       </c>
-      <c r="E98" s="49">
+      <c r="E98" s="66">
         <v>33.000294233470797</v>
       </c>
-      <c r="F98" s="47">
+      <c r="F98" s="64">
         <v>20.707834357008299</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="65">
         <v>34.494551015569499</v>
       </c>
-      <c r="H98" s="49">
+      <c r="H98" s="66">
         <v>44.797614627422099</v>
       </c>
-      <c r="I98" s="47">
+      <c r="I98" s="64">
         <v>15.328226524666899</v>
       </c>
-      <c r="J98" s="48">
+      <c r="J98" s="65">
         <v>20.516951496430501</v>
       </c>
-      <c r="K98" s="49">
+      <c r="K98" s="66">
         <v>64.154821978902703</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="72"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="53"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="74"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="74"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="74"/>
+      <c r="K101" s="74"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="74"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C103" s="54"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="74"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="74"/>
+      <c r="K103" s="74"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="55"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="74"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B106" s="75"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="74"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="55"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="54"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B108" s="76"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B110" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="74"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="74"/>
+      <c r="K110" s="74"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B111" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="54"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="74"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C112" s="54"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="54"/>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="54"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="74"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B113" s="2"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="74"/>
+      <c r="K113" s="74"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9306EE4F-901B-42DB-97EB-8C9B9E71A64F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F6664E97-7873-4AF0-B4AE-182E7586C2FD}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{B0687AA1-46C7-4714-B17E-71BDB3803016}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{1D74D6B1-EA41-4F8C-9D13-0DC9D0202405}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{D5B46CB5-9C09-4701-B6BA-D6A53D4F31CF}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{E1B8ABE9-619F-4E4E-BCE8-29803DCBBC59}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C40B6EC1-1F27-4F49-8488-8C635D74417A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{367D9646-AA11-4BE8-9CF7-DACE8E4BAFBA}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{16D3D552-DE16-417B-B405-361DD6B9C7F2}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{C3D10861-46CA-47A2-AB18-964D655196F2}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5FC1F6D1-AD10-4916-90BE-3B8B4EEBA6E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DDAf_2024_Tableau_annexe_Tab38.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab38.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A48A613-9A2C-4996-9F69-5D07D461DB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72207498-9C24-4BDF-8C85-31E03434AE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{663D80EA-EAB5-45CF-98EB-3CE35A56F079}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02C1B3C0-9308-4C7D-B41F-F0F2CA9C53C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab38" sheetId="1" r:id="rId1"/>
@@ -1392,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEB03A0-B7CD-48D3-A4E5-E5837B7B0628}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0DC2B-377A-4D8A-821E-B284C3070C99}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1400,19 +1400,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1426,7 +1426,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>61.337493303079</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>71.411292064451999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>74.437286248309903</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>65.012340379869102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>65.156612500430995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>63.674139766115701</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>67.837228615494197</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>73.795970136130904</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>69.267940547441896</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>81.319950635597095</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>32</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>68.933979787803395</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>60.913744292672703</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>67.493424458941703</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>64.751085074591501</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>40</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>62.490013575042703</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>65.411909904350495</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>67.880414524939198</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>46</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>63.883216095605498</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>64.5516074450085</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>50</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>59.3406593406594</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>32</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>66.508581376892096</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>53</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>68.388504910876705</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>55</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>59.586874876457799</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>57</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>64.321408741175603</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>61.863689000091703</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>61</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>69.769866826202701</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>63</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>58.382883321961202</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>60.729969747243103</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>67</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>59.760376349161398</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>69</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>70.173267326732699</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>71</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>65.814233858814603</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>73</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>75.589680672495504</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>75</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>67.611295347201306</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>77</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>60.889489388053804</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>79</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>66.411726801337196</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>32</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>64.342552382291004</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>82</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>69.271406612908706</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>84</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>77.9270495199858</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>65.420590180455406</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>88</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>62.397643856400201</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>90</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>56.149272203836802</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>92</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>58.575584071285199</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>32</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>70.544537822855403</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>95</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>61.828151986183101</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>97</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>62.7175046516859</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>99</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>55.537459283387598</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>101</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>64.582583104643007</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>103</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>66.804357694053607</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>105</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>66.035597144510902</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>107</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>65.011970761117695</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>109</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>63.932066781807698</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>111</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>67.499329606633793</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>113</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>62.902774330183902</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>115</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>62.143876008601097</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>117</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>72.907091233494</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>119</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>63.848480311423899</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>121</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>65.937382119954805</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>123</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>60.683760683760703</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
         <v>125</v>
@@ -3524,7 +3524,7 @@
         <v>68.558060751558799</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46"/>
       <c r="B62" s="47" t="s">
         <v>126</v>
@@ -3557,7 +3557,7 @@
         <v>67.403906475446504</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46"/>
       <c r="B63" s="51" t="s">
         <v>127</v>
@@ -3590,7 +3590,7 @@
         <v>67.791631877962303</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="55"/>
       <c r="B64" s="56" t="s">
         <v>128</v>
@@ -3623,7 +3623,7 @@
         <v>66.993167710862394</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="55"/>
       <c r="B65" s="51" t="s">
         <v>129</v>
@@ -3656,7 +3656,7 @@
         <v>62.054347612668998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55"/>
       <c r="B66" s="63" t="s">
         <v>130</v>
@@ -3689,7 +3689,7 @@
         <v>67.721019229872297</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="55"/>
       <c r="B67" s="51" t="s">
         <v>131</v>
@@ -3722,7 +3722,7 @@
         <v>67.809155661717597</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="55"/>
       <c r="B68" s="51" t="s">
         <v>132</v>
@@ -3755,7 +3755,7 @@
         <v>68.8078068335968</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="55"/>
       <c r="B69" s="51" t="s">
         <v>133</v>
@@ -3788,7 +3788,7 @@
         <v>66.262874156256203</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="55"/>
       <c r="B70" s="51" t="s">
         <v>134</v>
@@ -3821,7 +3821,7 @@
         <v>65.225662255990997</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="55"/>
       <c r="B71" s="51" t="s">
         <v>135</v>
@@ -3854,7 +3854,7 @@
         <v>68.558060751558799</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="55"/>
       <c r="B72" s="51" t="s">
         <v>136</v>
@@ -3887,7 +3887,7 @@
         <v>65.893267296373196</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="55"/>
       <c r="B73" s="51" t="s">
         <v>137</v>
@@ -3920,7 +3920,7 @@
         <v>66.453741241188496</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
       <c r="B74" s="51" t="s">
         <v>137</v>
@@ -3953,7 +3953,7 @@
         <v>62.939036940518399</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55"/>
       <c r="B75" s="51" t="s">
         <v>138</v>
@@ -3986,7 +3986,7 @@
         <v>62.438717391988398</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
       <c r="B76" s="67" t="s">
         <v>139</v>
@@ -4019,7 +4019,7 @@
         <v>65.827987105946207</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="55"/>
       <c r="B77" s="51" t="s">
         <v>140</v>
@@ -4052,7 +4052,7 @@
         <v>69.089110406377301</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="55"/>
       <c r="B78" s="51" t="s">
         <v>140</v>
@@ -4085,7 +4085,7 @@
         <v>81.188206766961798</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55"/>
       <c r="B79" s="63" t="s">
         <v>141</v>
@@ -4118,7 +4118,7 @@
         <v>81.221596164528094</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="55"/>
       <c r="B80" s="51" t="s">
         <v>142</v>
@@ -4151,7 +4151,7 @@
         <v>66.332984859613205</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
       <c r="B81" s="51" t="s">
         <v>143</v>
@@ -4184,7 +4184,7 @@
         <v>77.614007826053097</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="55"/>
       <c r="B82" s="51" t="s">
         <v>144</v>
@@ -4217,7 +4217,7 @@
         <v>67.517686203980205</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55"/>
       <c r="B83" s="51" t="s">
         <v>145</v>
@@ -4250,7 +4250,7 @@
         <v>66.944284331335197</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="55"/>
       <c r="B84" s="67" t="s">
         <v>146</v>
@@ -4283,7 +4283,7 @@
         <v>64.464746030914498</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="55"/>
       <c r="B85" s="71" t="s">
         <v>147</v>
@@ -4316,7 +4316,7 @@
         <v>77.389444973558696</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="55"/>
       <c r="B86" s="51" t="s">
         <v>148</v>
@@ -4349,7 +4349,7 @@
         <v>69.142922378335598</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="55"/>
       <c r="B87" s="51" t="s">
         <v>149</v>
@@ -4382,7 +4382,7 @@
         <v>65.671342888981599</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="55"/>
       <c r="B88" s="51" t="s">
         <v>150</v>
@@ -4415,7 +4415,7 @@
         <v>72.060846733068601</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="55"/>
       <c r="B89" s="51" t="s">
         <v>151</v>
@@ -4448,7 +4448,7 @@
         <v>61.737193581268301</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55"/>
       <c r="B90" s="63" t="s">
         <v>152</v>
@@ -4481,7 +4481,7 @@
         <v>84.238167703025795</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="55"/>
       <c r="B91" s="51" t="s">
         <v>153</v>
@@ -4514,7 +4514,7 @@
         <v>64.0587525410225</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="55"/>
       <c r="B92" s="51" t="s">
         <v>154</v>
@@ -4547,7 +4547,7 @@
         <v>60.306237864113903</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="55"/>
       <c r="B93" s="51" t="s">
         <v>155</v>
@@ -4580,7 +4580,7 @@
         <v>62.988849293022199</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="55"/>
       <c r="B94" s="51" t="s">
         <v>156</v>
@@ -4613,7 +4613,7 @@
         <v>68.133113770429006</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="55"/>
       <c r="B95" s="51" t="s">
         <v>157</v>
@@ -4646,7 +4646,7 @@
         <v>64.882079686079706</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55"/>
       <c r="B96" s="51" t="s">
         <v>157</v>
@@ -4679,7 +4679,7 @@
         <v>79.520548274034198</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
       <c r="B97" s="67" t="s">
         <v>158</v>
@@ -4712,7 +4712,7 @@
         <v>66.483604690177103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55"/>
       <c r="B98" s="63" t="s">
         <v>159</v>
@@ -4745,7 +4745,7 @@
         <v>64.154821978902703</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="53"/>
@@ -4758,7 +4758,7 @@
       <c r="J99" s="53"/>
       <c r="K99" s="53"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>160</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="J100" s="74"/>
       <c r="K100" s="74"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="J101" s="74"/>
       <c r="K101" s="74"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="J102" s="74"/>
       <c r="K102" s="74"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>163</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="J103" s="74"/>
       <c r="K103" s="74"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>164</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="J104" s="74"/>
       <c r="K104" s="74"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -4839,7 +4839,7 @@
       <c r="J105" s="74"/>
       <c r="K105" s="74"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -4851,7 +4851,7 @@
       <c r="J106" s="74"/>
       <c r="K106" s="74"/>
     </row>
-    <row r="107" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
         <v>165</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="J107" s="74"/>
       <c r="K107" s="74"/>
     </row>
-    <row r="108" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="76"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -4877,7 +4877,7 @@
       <c r="J108" s="74"/>
       <c r="K108" s="74"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>167</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="J109" s="74"/>
       <c r="K109" s="74"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>168</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="J110" s="74"/>
       <c r="K110" s="74"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" s="78" t="s">
         <v>169</v>
       </c>
@@ -4919,7 +4919,7 @@
       <c r="J111" s="74"/>
       <c r="K111" s="74"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>166</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="J112" s="74"/>
       <c r="K112" s="74"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -4945,7 +4945,7 @@
       <c r="J113" s="74"/>
       <c r="K113" s="74"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
@@ -4959,11 +4959,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C40B6EC1-1F27-4F49-8488-8C635D74417A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{367D9646-AA11-4BE8-9CF7-DACE8E4BAFBA}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{16D3D552-DE16-417B-B405-361DD6B9C7F2}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{C3D10861-46CA-47A2-AB18-964D655196F2}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{5FC1F6D1-AD10-4916-90BE-3B8B4EEBA6E5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8D1DE509-7A8B-4250-BBC5-FDA53D2B5F5D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E0A6735F-ED98-4ED2-86C7-AD6D11944784}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{263B0C30-C6F3-435B-8703-84BCFE234D95}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{15E6A335-94A6-481E-8C2B-9FF4AA20B5A5}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{2F0695C0-8BA0-46E3-991B-E47A0A47CE47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab38.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72207498-9C24-4BDF-8C85-31E03434AE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6862FB4-B025-488B-85CB-0C512AAAD8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02C1B3C0-9308-4C7D-B41F-F0F2CA9C53C4}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{ADFB7FBA-C14D-4B5C-B9CB-6B9D13078347}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab38" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,13 +683,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -853,7 +846,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1073,10 +1066,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1392,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0DC2B-377A-4D8A-821E-B284C3070C99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F276E57-04EF-40C3-8473-E216991E1A55}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4840,7 +4832,6 @@
       <c r="K105" s="74"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
       <c r="E106" s="74"/>
@@ -4852,7 +4843,7 @@
       <c r="K106" s="74"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="75" t="s">
         <v>165</v>
       </c>
       <c r="C107" s="74"/>
@@ -4866,7 +4857,7 @@
       <c r="K107" s="74"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="76"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
       <c r="E108" s="74"/>
@@ -4906,7 +4897,7 @@
       <c r="K110" s="74"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="76" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="74"/>
@@ -4920,7 +4911,7 @@
       <c r="K111" s="74"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>166</v>
       </c>
       <c r="C112" s="74"/>
@@ -4959,11 +4950,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8D1DE509-7A8B-4250-BBC5-FDA53D2B5F5D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E0A6735F-ED98-4ED2-86C7-AD6D11944784}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{263B0C30-C6F3-435B-8703-84BCFE234D95}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{15E6A335-94A6-481E-8C2B-9FF4AA20B5A5}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{2F0695C0-8BA0-46E3-991B-E47A0A47CE47}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{38FF3E4E-0A52-465D-B4CB-8E46A876FA3B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{79E26778-1B27-4E7C-9BCE-5BF6BA5F8098}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{ED63D282-2C35-4938-8D8A-F36082B341AA}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{0A51CBEA-48B5-40AA-BABA-51D6C767250C}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{2736AF09-D2D8-4A63-9899-F29367C5B453}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab38.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6862FB4-B025-488B-85CB-0C512AAAD8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C70ACCC-5812-40F3-963C-BB388580A819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{ADFB7FBA-C14D-4B5C-B9CB-6B9D13078347}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3FEFFB2-9F61-44E1-ABB8-39A5767DD605}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab38" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="172">
   <si>
     <t>Tableau 38 : Profils éducatifs projetés</t>
   </si>
@@ -444,7 +444,7 @@
     <t>CEEAC</t>
   </si>
   <si>
-    <t>CÉDÉAO</t>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
@@ -456,13 +456,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -715,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -840,13 +846,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1044,17 +1087,26 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1384,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F276E57-04EF-40C3-8473-E216991E1A55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC7A6CB-1B3C-49F4-AE28-2167EB848623}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1396,11 +1448,11 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3683,7 +3735,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="55"/>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="67" t="s">
         <v>131</v>
       </c>
       <c r="C67" s="60">
@@ -3716,7 +3768,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="55"/>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="67" t="s">
         <v>132</v>
       </c>
       <c r="C68" s="60">
@@ -3749,7 +3801,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="55"/>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="67" t="s">
         <v>133</v>
       </c>
       <c r="C69" s="60">
@@ -3782,7 +3834,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="55"/>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C70" s="60">
@@ -3815,7 +3867,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="55"/>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="67" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="60">
@@ -3848,7 +3900,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="55"/>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="67" t="s">
         <v>136</v>
       </c>
       <c r="C72" s="60">
@@ -3881,7 +3933,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="55"/>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="67" t="s">
         <v>137</v>
       </c>
       <c r="C73" s="60">
@@ -3914,8 +3966,8 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
-      <c r="B74" s="51" t="s">
-        <v>137</v>
+      <c r="B74" s="67" t="s">
+        <v>138</v>
       </c>
       <c r="C74" s="60">
         <v>27.8328211398902</v>
@@ -3947,8 +3999,8 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55"/>
-      <c r="B75" s="51" t="s">
-        <v>138</v>
+      <c r="B75" s="67" t="s">
+        <v>139</v>
       </c>
       <c r="C75" s="52">
         <v>59.0874733915403</v>
@@ -3980,41 +4032,41 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
-      <c r="B76" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="68">
+      <c r="B76" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="69">
         <v>12.6102542235874</v>
       </c>
-      <c r="D76" s="69">
+      <c r="D76" s="70">
         <v>46.6302271061639</v>
       </c>
-      <c r="E76" s="70">
+      <c r="E76" s="71">
         <v>40.759518670248703</v>
       </c>
-      <c r="F76" s="68">
+      <c r="F76" s="69">
         <v>6.2764259743678403</v>
       </c>
-      <c r="G76" s="69">
+      <c r="G76" s="70">
         <v>36.853215537239002</v>
       </c>
-      <c r="H76" s="70">
+      <c r="H76" s="71">
         <v>56.870358488393201</v>
       </c>
-      <c r="I76" s="68">
+      <c r="I76" s="69">
         <v>5.8147491538389904</v>
       </c>
-      <c r="J76" s="69">
+      <c r="J76" s="70">
         <v>28.357263740214901</v>
       </c>
-      <c r="K76" s="70">
+      <c r="K76" s="71">
         <v>65.827987105946207</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="55"/>
-      <c r="B77" s="51" t="s">
-        <v>140</v>
+      <c r="B77" s="67" t="s">
+        <v>141</v>
       </c>
       <c r="C77" s="60">
         <v>15.2191945341165</v>
@@ -4046,8 +4098,8 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="55"/>
-      <c r="B78" s="51" t="s">
-        <v>140</v>
+      <c r="B78" s="67" t="s">
+        <v>142</v>
       </c>
       <c r="C78" s="60">
         <v>2.4214270202857202</v>
@@ -4079,8 +4131,8 @@
     </row>
     <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55"/>
-      <c r="B79" s="63" t="s">
-        <v>141</v>
+      <c r="B79" s="72" t="s">
+        <v>143</v>
       </c>
       <c r="C79" s="64">
         <v>3.89192270719168</v>
@@ -4113,7 +4165,7 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="55"/>
       <c r="B80" s="51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C80" s="60">
         <v>37.1855254142665</v>
@@ -4146,7 +4198,7 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
       <c r="B81" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C81" s="60">
         <v>11.961026209530701</v>
@@ -4179,7 +4231,7 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="55"/>
       <c r="B82" s="51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C82" s="60">
         <v>39.2888146622996</v>
@@ -4212,7 +4264,7 @@
     <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55"/>
       <c r="B83" s="51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C83" s="52">
         <v>15.737895229084501</v>
@@ -4244,41 +4296,41 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="55"/>
-      <c r="B84" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="68">
+      <c r="B84" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="69">
         <v>55.1111484292135</v>
       </c>
-      <c r="D84" s="69">
+      <c r="D84" s="70">
         <v>30.958776043451099</v>
       </c>
-      <c r="E84" s="70">
+      <c r="E84" s="71">
         <v>13.930075527335401</v>
       </c>
-      <c r="F84" s="68">
+      <c r="F84" s="69">
         <v>35.805988255695397</v>
       </c>
-      <c r="G84" s="69">
+      <c r="G84" s="70">
         <v>39.227208129125302</v>
       </c>
-      <c r="H84" s="70">
+      <c r="H84" s="71">
         <v>24.966803615179401</v>
       </c>
-      <c r="I84" s="68">
+      <c r="I84" s="69">
         <v>18.236502288294201</v>
       </c>
-      <c r="J84" s="69">
+      <c r="J84" s="70">
         <v>17.298751680791401</v>
       </c>
-      <c r="K84" s="70">
+      <c r="K84" s="71">
         <v>64.464746030914498</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="55"/>
-      <c r="B85" s="71" t="s">
-        <v>147</v>
+      <c r="B85" s="74" t="s">
+        <v>149</v>
       </c>
       <c r="C85" s="60">
         <v>40.543877371045603</v>
@@ -4311,7 +4363,7 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="55"/>
       <c r="B86" s="51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C86" s="60">
         <v>30.875525211150201</v>
@@ -4344,7 +4396,7 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="55"/>
       <c r="B87" s="51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C87" s="60">
         <v>29.484922204096499</v>
@@ -4377,7 +4429,7 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="55"/>
       <c r="B88" s="51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C88" s="60">
         <v>14.066931896217101</v>
@@ -4410,7 +4462,7 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="55"/>
       <c r="B89" s="51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C89" s="60">
         <v>9.43298478383754</v>
@@ -4443,7 +4495,7 @@
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55"/>
       <c r="B90" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C90" s="64">
         <v>2.64854379923809</v>
@@ -4476,7 +4528,7 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="55"/>
       <c r="B91" s="51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C91" s="60">
         <v>51.311414859508602</v>
@@ -4509,7 +4561,7 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="55"/>
       <c r="B92" s="51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C92" s="60">
         <v>41.048109634550201</v>
@@ -4542,7 +4594,7 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="55"/>
       <c r="B93" s="51" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C93" s="60">
         <v>38.260687091552299</v>
@@ -4575,7 +4627,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="55"/>
       <c r="B94" s="51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C94" s="60">
         <v>19.439735715468402</v>
@@ -4608,7 +4660,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="55"/>
       <c r="B95" s="51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C95" s="60">
         <v>55.818625491722202</v>
@@ -4641,7 +4693,7 @@
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55"/>
       <c r="B96" s="51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C96" s="52">
         <v>19.328038854544701</v>
@@ -4673,41 +4725,41 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
-      <c r="B97" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="68">
+      <c r="B97" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="69">
         <v>43.857649300504796</v>
       </c>
-      <c r="D97" s="69">
+      <c r="D97" s="70">
         <v>35.570990237524903</v>
       </c>
-      <c r="E97" s="70">
+      <c r="E97" s="71">
         <v>20.571360461970301</v>
       </c>
-      <c r="F97" s="68">
+      <c r="F97" s="69">
         <v>27.7303863972542</v>
       </c>
-      <c r="G97" s="69">
+      <c r="G97" s="70">
         <v>40.104325443301803</v>
       </c>
-      <c r="H97" s="70">
+      <c r="H97" s="71">
         <v>32.165288159444003</v>
       </c>
-      <c r="I97" s="68">
+      <c r="I97" s="69">
         <v>14.6306473704525</v>
       </c>
-      <c r="J97" s="69">
+      <c r="J97" s="70">
         <v>18.8857479393704</v>
       </c>
-      <c r="K97" s="70">
+      <c r="K97" s="71">
         <v>66.483604690177103</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55"/>
       <c r="B98" s="63" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C98" s="64">
         <v>32.625747577467102</v>
@@ -4738,8 +4790,8 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
-      <c r="B99" s="73"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
       <c r="C99" s="53"/>
       <c r="D99" s="53"/>
       <c r="E99" s="53"/>
@@ -4752,209 +4804,209 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
+        <v>162</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
+        <v>164</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
+        <v>165</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
+        <v>166</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
+      <c r="B107" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="75"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
+        <v>169</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="74"/>
-      <c r="K110" s="74"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="74"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="74"/>
-      <c r="K113" s="74"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="74"/>
-      <c r="K114" s="74"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{38FF3E4E-0A52-465D-B4CB-8E46A876FA3B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{79E26778-1B27-4E7C-9BCE-5BF6BA5F8098}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{ED63D282-2C35-4938-8D8A-F36082B341AA}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{0A51CBEA-48B5-40AA-BABA-51D6C767250C}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{2736AF09-D2D8-4A63-9899-F29367C5B453}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DF9EFDB5-0532-447A-8952-AC2C08A20D10}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{85298F86-4AAB-4AC7-81F1-ED5D4C67B70B}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{108E57B4-3B0E-4C37-A0BA-12BA20CFFECF}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F7628707-9160-4E7C-9BE0-553C2E4C2B70}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{63E6D6E7-272E-43D6-ADCF-F55B37B7B4C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>
